--- a/public/excel_samples/rider_invoice.xlsx
+++ b/public/excel_samples/rider_invoice.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new-projects\htdocs\express-fast\public\excel_samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\adnan_uae\erp_express\public\excel_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AI$1</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -32,55 +35,58 @@
     <t>Rider_Name</t>
   </si>
   <si>
-    <t>Delivered 1-3Kms</t>
-  </si>
-  <si>
-    <t>Delivered 4 Kms</t>
-  </si>
-  <si>
-    <t>Delivered 5 Kms</t>
-  </si>
-  <si>
-    <t>Delivered 6 Kms</t>
-  </si>
-  <si>
-    <t>Delivered 7 Kms</t>
-  </si>
-  <si>
-    <t>Delivered 8 Kms</t>
-  </si>
-  <si>
-    <t>Delivered 9Kms &amp; Above</t>
-  </si>
-  <si>
-    <t>Batched Order 1-3Kms</t>
-  </si>
-  <si>
-    <t>Batched Order 4 Kms</t>
-  </si>
-  <si>
-    <t>Batched Order 5 Kms</t>
-  </si>
-  <si>
-    <t>Batched Order 6 Kms</t>
-  </si>
-  <si>
-    <t>Batched Order 7 Kms</t>
-  </si>
-  <si>
-    <t>Batched Order 8 Kms</t>
-  </si>
-  <si>
-    <t>Batched Order 9Kms &amp; Above</t>
-  </si>
-  <si>
-    <t>Total Ride</t>
-  </si>
-  <si>
-    <t>Guarantee</t>
-  </si>
-  <si>
-    <t>Amount</t>
+    <t>Delivered 1 Km - 4 Km</t>
+  </si>
+  <si>
+    <t>Delivered 5 Km - 8 Km</t>
+  </si>
+  <si>
+    <t>Delivered 9 Km - 10 Km</t>
+  </si>
+  <si>
+    <t>Delivered 11 Km - 12 Km</t>
+  </si>
+  <si>
+    <t>Delivered 13 Km - 14 Km</t>
+  </si>
+  <si>
+    <t>Delivered 15 Km</t>
+  </si>
+  <si>
+    <t>Delivered 16 Km</t>
+  </si>
+  <si>
+    <t>Delivered 17 Km</t>
+  </si>
+  <si>
+    <t>Delivered 18 Km &amp; Above</t>
+  </si>
+  <si>
+    <t>Batched Order 1 Km - 4 Km</t>
+  </si>
+  <si>
+    <t>Batched Order 5 Km - 8 Km</t>
+  </si>
+  <si>
+    <t>Batched Order 9 Km - 10 Km</t>
+  </si>
+  <si>
+    <t>Batched Order 11 Km - 12 Km</t>
+  </si>
+  <si>
+    <t>Batched Order 13 Km - 14 Km</t>
+  </si>
+  <si>
+    <t>Batched Order 15 Km</t>
+  </si>
+  <si>
+    <t>Batched Order 16 Km</t>
+  </si>
+  <si>
+    <t>Batched Order 17 Km</t>
+  </si>
+  <si>
+    <t>Batched Order 18 Km &amp; Above</t>
   </si>
   <si>
     <t>Rejection</t>
@@ -92,38 +98,45 @@
     <t>Zone</t>
   </si>
   <si>
-    <t>working Days</t>
-  </si>
-  <si>
-    <t>Perfect Attendance</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>month of invoice</t>
+    <t>Working Days</t>
+  </si>
+  <si>
+    <t>Perf_Attendance</t>
+  </si>
+  <si>
+    <t>Deira</t>
+  </si>
+  <si>
+    <t>Liaqat Ali Bilawal Khan</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Off</t>
   </si>
   <si>
     <t>Performance</t>
   </si>
   <si>
-    <t>Descriptions</t>
+    <t>Billing Month</t>
+  </si>
+  <si>
+    <t>Invoice Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Invoice Description comes here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -151,9 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,7 +202,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -200,7 +214,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -217,9 +231,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -247,14 +261,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -282,6 +313,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,122 +482,1187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AD329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B2">
+        <v>20163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>367</v>
+      </c>
+      <c r="E2">
+        <v>182</v>
+      </c>
+      <c r="F2">
+        <v>67</v>
+      </c>
+      <c r="G2">
+        <v>48</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>17</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>310</v>
+      </c>
+      <c r="X2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="Y2">
+        <v>31</v>
+      </c>
+      <c r="Z2">
+        <v>31</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
         <v>27</v>
       </c>
+      <c r="AC2" s="1">
+        <v>44927</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC33" s="1"/>
+    </row>
+    <row r="34" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC34" s="1"/>
+    </row>
+    <row r="35" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC35" s="1"/>
+    </row>
+    <row r="36" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC36" s="1"/>
+    </row>
+    <row r="37" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC37" s="1"/>
+    </row>
+    <row r="38" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC38" s="1"/>
+    </row>
+    <row r="39" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC39" s="1"/>
+    </row>
+    <row r="40" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC40" s="1"/>
+    </row>
+    <row r="41" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC41" s="1"/>
+    </row>
+    <row r="42" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC42" s="1"/>
+    </row>
+    <row r="43" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC43" s="1"/>
+    </row>
+    <row r="44" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC44" s="1"/>
+    </row>
+    <row r="45" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC45" s="1"/>
+    </row>
+    <row r="46" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC46" s="1"/>
+    </row>
+    <row r="47" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC47" s="1"/>
+    </row>
+    <row r="48" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC48" s="1"/>
+    </row>
+    <row r="49" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC49" s="1"/>
+    </row>
+    <row r="50" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC50" s="1"/>
+    </row>
+    <row r="51" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC51" s="1"/>
+    </row>
+    <row r="52" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC52" s="1"/>
+    </row>
+    <row r="53" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC53" s="1"/>
+    </row>
+    <row r="54" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC54" s="1"/>
+    </row>
+    <row r="55" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC55" s="1"/>
+    </row>
+    <row r="56" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC56" s="1"/>
+    </row>
+    <row r="57" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC57" s="1"/>
+    </row>
+    <row r="58" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC58" s="1"/>
+    </row>
+    <row r="59" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC59" s="1"/>
+    </row>
+    <row r="60" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC60" s="1"/>
+    </row>
+    <row r="61" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC61" s="1"/>
+    </row>
+    <row r="62" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC62" s="1"/>
+    </row>
+    <row r="63" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC63" s="1"/>
+    </row>
+    <row r="64" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC64" s="1"/>
+    </row>
+    <row r="65" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC65" s="1"/>
+    </row>
+    <row r="66" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC66" s="1"/>
+    </row>
+    <row r="67" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC67" s="1"/>
+    </row>
+    <row r="68" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC68" s="1"/>
+    </row>
+    <row r="69" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC69" s="1"/>
+    </row>
+    <row r="70" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC70" s="1"/>
+    </row>
+    <row r="71" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC71" s="1"/>
+    </row>
+    <row r="72" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC72" s="1"/>
+    </row>
+    <row r="73" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC73" s="1"/>
+    </row>
+    <row r="74" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC74" s="1"/>
+    </row>
+    <row r="75" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC75" s="1"/>
+    </row>
+    <row r="76" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC76" s="1"/>
+    </row>
+    <row r="77" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC77" s="1"/>
+    </row>
+    <row r="78" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC78" s="1"/>
+    </row>
+    <row r="79" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC79" s="1"/>
+    </row>
+    <row r="80" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC80" s="1"/>
+    </row>
+    <row r="81" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC81" s="1"/>
+    </row>
+    <row r="82" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC82" s="1"/>
+    </row>
+    <row r="83" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC83" s="1"/>
+    </row>
+    <row r="84" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC84" s="1"/>
+    </row>
+    <row r="85" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC85" s="1"/>
+    </row>
+    <row r="86" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC86" s="1"/>
+    </row>
+    <row r="87" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC87" s="1"/>
+    </row>
+    <row r="88" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC88" s="1"/>
+    </row>
+    <row r="89" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC89" s="1"/>
+    </row>
+    <row r="90" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC90" s="1"/>
+    </row>
+    <row r="91" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC91" s="1"/>
+    </row>
+    <row r="92" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC92" s="1"/>
+    </row>
+    <row r="93" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC93" s="1"/>
+    </row>
+    <row r="94" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC94" s="1"/>
+    </row>
+    <row r="95" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC95" s="1"/>
+    </row>
+    <row r="96" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC96" s="1"/>
+    </row>
+    <row r="97" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC97" s="1"/>
+    </row>
+    <row r="98" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC98" s="1"/>
+    </row>
+    <row r="99" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC99" s="1"/>
+    </row>
+    <row r="100" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC100" s="1"/>
+    </row>
+    <row r="101" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC101" s="1"/>
+    </row>
+    <row r="102" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC102" s="1"/>
+    </row>
+    <row r="103" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC103" s="1"/>
+    </row>
+    <row r="104" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC104" s="1"/>
+    </row>
+    <row r="105" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC105" s="1"/>
+    </row>
+    <row r="106" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC106" s="1"/>
+    </row>
+    <row r="107" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC107" s="1"/>
+    </row>
+    <row r="108" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC108" s="1"/>
+    </row>
+    <row r="109" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC109" s="1"/>
+    </row>
+    <row r="110" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC110" s="1"/>
+    </row>
+    <row r="111" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC111" s="1"/>
+    </row>
+    <row r="112" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC112" s="1"/>
+    </row>
+    <row r="113" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC113" s="1"/>
+    </row>
+    <row r="114" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC114" s="1"/>
+    </row>
+    <row r="115" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC115" s="1"/>
+    </row>
+    <row r="116" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC116" s="1"/>
+    </row>
+    <row r="117" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC117" s="1"/>
+    </row>
+    <row r="118" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC118" s="1"/>
+    </row>
+    <row r="119" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC119" s="1"/>
+    </row>
+    <row r="120" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC120" s="1"/>
+    </row>
+    <row r="121" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC121" s="1"/>
+    </row>
+    <row r="122" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC122" s="1"/>
+    </row>
+    <row r="123" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC123" s="1"/>
+    </row>
+    <row r="124" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC124" s="1"/>
+    </row>
+    <row r="125" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC125" s="1"/>
+    </row>
+    <row r="126" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC126" s="1"/>
+    </row>
+    <row r="127" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC127" s="1"/>
+    </row>
+    <row r="128" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC128" s="1"/>
+    </row>
+    <row r="129" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC129" s="1"/>
+    </row>
+    <row r="130" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC130" s="1"/>
+    </row>
+    <row r="131" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC131" s="1"/>
+    </row>
+    <row r="132" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC132" s="1"/>
+    </row>
+    <row r="133" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC133" s="1"/>
+    </row>
+    <row r="134" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC134" s="1"/>
+    </row>
+    <row r="135" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC135" s="1"/>
+    </row>
+    <row r="136" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC136" s="1"/>
+    </row>
+    <row r="137" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC137" s="1"/>
+    </row>
+    <row r="138" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC138" s="1"/>
+    </row>
+    <row r="139" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC139" s="1"/>
+    </row>
+    <row r="140" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC140" s="1"/>
+    </row>
+    <row r="141" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC141" s="1"/>
+    </row>
+    <row r="142" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC142" s="1"/>
+    </row>
+    <row r="143" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC143" s="1"/>
+    </row>
+    <row r="144" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC144" s="1"/>
+    </row>
+    <row r="145" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC145" s="1"/>
+    </row>
+    <row r="146" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC146" s="1"/>
+    </row>
+    <row r="147" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC147" s="1"/>
+    </row>
+    <row r="148" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC148" s="1"/>
+    </row>
+    <row r="149" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC149" s="1"/>
+    </row>
+    <row r="150" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC150" s="1"/>
+    </row>
+    <row r="151" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC151" s="1"/>
+    </row>
+    <row r="152" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC152" s="1"/>
+    </row>
+    <row r="153" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC153" s="1"/>
+    </row>
+    <row r="154" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC154" s="1"/>
+    </row>
+    <row r="155" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC155" s="1"/>
+    </row>
+    <row r="156" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC156" s="1"/>
+    </row>
+    <row r="157" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC157" s="1"/>
+    </row>
+    <row r="158" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC158" s="1"/>
+    </row>
+    <row r="159" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC159" s="1"/>
+    </row>
+    <row r="160" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC160" s="1"/>
+    </row>
+    <row r="161" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC161" s="1"/>
+    </row>
+    <row r="162" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC162" s="1"/>
+    </row>
+    <row r="163" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC163" s="1"/>
+    </row>
+    <row r="164" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC164" s="1"/>
+    </row>
+    <row r="165" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC165" s="1"/>
+    </row>
+    <row r="166" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC166" s="1"/>
+    </row>
+    <row r="167" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC167" s="1"/>
+    </row>
+    <row r="168" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC168" s="1"/>
+    </row>
+    <row r="169" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC169" s="1"/>
+    </row>
+    <row r="170" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC170" s="1"/>
+    </row>
+    <row r="171" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC171" s="1"/>
+    </row>
+    <row r="172" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC172" s="1"/>
+    </row>
+    <row r="173" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC173" s="1"/>
+    </row>
+    <row r="174" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC174" s="1"/>
+    </row>
+    <row r="175" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC175" s="1"/>
+    </row>
+    <row r="176" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC176" s="1"/>
+    </row>
+    <row r="177" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC177" s="1"/>
+    </row>
+    <row r="178" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC178" s="1"/>
+    </row>
+    <row r="179" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC179" s="1"/>
+    </row>
+    <row r="180" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC180" s="1"/>
+    </row>
+    <row r="181" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC181" s="1"/>
+    </row>
+    <row r="182" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC182" s="1"/>
+    </row>
+    <row r="183" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC183" s="1"/>
+    </row>
+    <row r="184" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC184" s="1"/>
+    </row>
+    <row r="185" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC185" s="1"/>
+    </row>
+    <row r="186" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC186" s="1"/>
+    </row>
+    <row r="187" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC187" s="1"/>
+    </row>
+    <row r="188" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC188" s="1"/>
+    </row>
+    <row r="189" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC189" s="1"/>
+    </row>
+    <row r="190" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC190" s="1"/>
+    </row>
+    <row r="191" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC191" s="1"/>
+    </row>
+    <row r="192" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC192" s="1"/>
+    </row>
+    <row r="193" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC193" s="1"/>
+    </row>
+    <row r="194" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC194" s="1"/>
+    </row>
+    <row r="195" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC195" s="1"/>
+    </row>
+    <row r="196" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC196" s="1"/>
+    </row>
+    <row r="197" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC197" s="1"/>
+    </row>
+    <row r="198" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC198" s="1"/>
+    </row>
+    <row r="199" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC199" s="1"/>
+    </row>
+    <row r="200" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC200" s="1"/>
+    </row>
+    <row r="201" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC201" s="1"/>
+    </row>
+    <row r="202" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC202" s="1"/>
+    </row>
+    <row r="203" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC203" s="1"/>
+    </row>
+    <row r="204" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC204" s="1"/>
+    </row>
+    <row r="205" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC205" s="1"/>
+    </row>
+    <row r="206" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC206" s="1"/>
+    </row>
+    <row r="207" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC207" s="1"/>
+    </row>
+    <row r="208" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC208" s="1"/>
+    </row>
+    <row r="209" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC209" s="1"/>
+    </row>
+    <row r="210" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC210" s="1"/>
+    </row>
+    <row r="211" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC211" s="1"/>
+    </row>
+    <row r="212" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC212" s="1"/>
+    </row>
+    <row r="213" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC213" s="1"/>
+    </row>
+    <row r="214" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC214" s="1"/>
+    </row>
+    <row r="215" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC215" s="1"/>
+    </row>
+    <row r="216" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC216" s="1"/>
+    </row>
+    <row r="217" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC217" s="1"/>
+    </row>
+    <row r="218" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC218" s="1"/>
+    </row>
+    <row r="219" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC219" s="1"/>
+    </row>
+    <row r="220" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC220" s="1"/>
+    </row>
+    <row r="221" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC221" s="1"/>
+    </row>
+    <row r="222" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC222" s="1"/>
+    </row>
+    <row r="223" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC223" s="1"/>
+    </row>
+    <row r="224" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC224" s="1"/>
+    </row>
+    <row r="225" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC225" s="1"/>
+    </row>
+    <row r="226" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC226" s="1"/>
+    </row>
+    <row r="227" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC227" s="1"/>
+    </row>
+    <row r="228" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC228" s="1"/>
+    </row>
+    <row r="229" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC229" s="1"/>
+    </row>
+    <row r="230" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC230" s="1"/>
+    </row>
+    <row r="231" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC231" s="1"/>
+    </row>
+    <row r="232" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC232" s="1"/>
+    </row>
+    <row r="233" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC233" s="1"/>
+    </row>
+    <row r="234" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC234" s="1"/>
+    </row>
+    <row r="235" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC235" s="1"/>
+    </row>
+    <row r="236" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC236" s="1"/>
+    </row>
+    <row r="237" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC237" s="1"/>
+    </row>
+    <row r="238" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC238" s="1"/>
+    </row>
+    <row r="239" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC239" s="1"/>
+    </row>
+    <row r="240" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC240" s="1"/>
+    </row>
+    <row r="241" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC241" s="1"/>
+    </row>
+    <row r="242" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC242" s="1"/>
+    </row>
+    <row r="243" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC243" s="1"/>
+    </row>
+    <row r="244" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC244" s="1"/>
+    </row>
+    <row r="245" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC245" s="1"/>
+    </row>
+    <row r="246" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC246" s="1"/>
+    </row>
+    <row r="247" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC247" s="1"/>
+    </row>
+    <row r="248" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC248" s="1"/>
+    </row>
+    <row r="249" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC249" s="1"/>
+    </row>
+    <row r="250" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC250" s="1"/>
+    </row>
+    <row r="251" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC251" s="1"/>
+    </row>
+    <row r="252" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC252" s="1"/>
+    </row>
+    <row r="253" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC253" s="1"/>
+    </row>
+    <row r="254" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC254" s="1"/>
+    </row>
+    <row r="255" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC255" s="1"/>
+    </row>
+    <row r="256" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC256" s="1"/>
+    </row>
+    <row r="257" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC257" s="1"/>
+    </row>
+    <row r="258" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC258" s="1"/>
+    </row>
+    <row r="259" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC259" s="1"/>
+    </row>
+    <row r="260" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC260" s="1"/>
+    </row>
+    <row r="261" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC261" s="1"/>
+    </row>
+    <row r="262" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC262" s="1"/>
+    </row>
+    <row r="263" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC263" s="1"/>
+    </row>
+    <row r="264" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC264" s="1"/>
+    </row>
+    <row r="265" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC265" s="1"/>
+    </row>
+    <row r="266" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC266" s="1"/>
+    </row>
+    <row r="267" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC267" s="1"/>
+    </row>
+    <row r="268" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC268" s="1"/>
+    </row>
+    <row r="269" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC269" s="1"/>
+    </row>
+    <row r="270" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC270" s="1"/>
+    </row>
+    <row r="271" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC271" s="1"/>
+    </row>
+    <row r="272" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC272" s="1"/>
+    </row>
+    <row r="273" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC273" s="1"/>
+    </row>
+    <row r="274" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC274" s="1"/>
+    </row>
+    <row r="275" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC275" s="1"/>
+    </row>
+    <row r="276" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC276" s="1"/>
+    </row>
+    <row r="277" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC277" s="1"/>
+    </row>
+    <row r="278" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC278" s="1"/>
+    </row>
+    <row r="279" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC279" s="1"/>
+    </row>
+    <row r="280" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC280" s="1"/>
+    </row>
+    <row r="281" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC281" s="1"/>
+    </row>
+    <row r="282" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC282" s="1"/>
+    </row>
+    <row r="283" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC283" s="1"/>
+    </row>
+    <row r="284" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC284" s="1"/>
+    </row>
+    <row r="285" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC285" s="1"/>
+    </row>
+    <row r="286" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC286" s="1"/>
+    </row>
+    <row r="287" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC287" s="1"/>
+    </row>
+    <row r="288" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC288" s="1"/>
+    </row>
+    <row r="289" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC289" s="1"/>
+    </row>
+    <row r="290" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC290" s="1"/>
+    </row>
+    <row r="291" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC291" s="1"/>
+    </row>
+    <row r="292" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC292" s="1"/>
+    </row>
+    <row r="293" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC293" s="1"/>
+    </row>
+    <row r="294" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC294" s="1"/>
+    </row>
+    <row r="295" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC295" s="1"/>
+    </row>
+    <row r="296" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC296" s="1"/>
+    </row>
+    <row r="297" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC297" s="1"/>
+    </row>
+    <row r="298" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC298" s="1"/>
+    </row>
+    <row r="299" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC299" s="1"/>
+    </row>
+    <row r="300" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC300" s="1"/>
+    </row>
+    <row r="301" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC301" s="1"/>
+    </row>
+    <row r="302" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC302" s="1"/>
+    </row>
+    <row r="303" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC303" s="1"/>
+    </row>
+    <row r="304" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC304" s="1"/>
+    </row>
+    <row r="305" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC305" s="1"/>
+    </row>
+    <row r="306" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC306" s="1"/>
+    </row>
+    <row r="307" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC307" s="1"/>
+    </row>
+    <row r="308" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC308" s="1"/>
+    </row>
+    <row r="309" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC309" s="1"/>
+    </row>
+    <row r="310" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC310" s="1"/>
+    </row>
+    <row r="311" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC311" s="1"/>
+    </row>
+    <row r="312" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC312" s="1"/>
+    </row>
+    <row r="313" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC313" s="1"/>
+    </row>
+    <row r="314" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC314" s="1"/>
+    </row>
+    <row r="315" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC315" s="1"/>
+    </row>
+    <row r="316" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC316" s="1"/>
+    </row>
+    <row r="317" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC317" s="1"/>
+    </row>
+    <row r="318" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC318" s="1"/>
+    </row>
+    <row r="319" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC319" s="1"/>
+    </row>
+    <row r="320" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC320" s="1"/>
+    </row>
+    <row r="321" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC321" s="1"/>
+    </row>
+    <row r="322" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC322" s="1"/>
+    </row>
+    <row r="323" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC323" s="1"/>
+    </row>
+    <row r="324" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC324" s="1"/>
+    </row>
+    <row r="325" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC325" s="1"/>
+    </row>
+    <row r="326" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC326" s="1"/>
+    </row>
+    <row r="327" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC327" s="1"/>
+    </row>
+    <row r="328" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC328" s="1"/>
+    </row>
+    <row r="329" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC329" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/excel_samples/rider_invoice.xlsx
+++ b/public/excel_samples/rider_invoice.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Invoice Description comes here</t>
+  </si>
+  <si>
+    <t>Gaurantee</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD329"/>
+  <dimension ref="A1:AE329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +500,7 @@
     <col min="30" max="30" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -588,8 +591,11 @@
       <c r="AD1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45341</v>
       </c>
@@ -675,52 +681,52 @@
         <v>27</v>
       </c>
       <c r="AC2" s="1">
-        <v>44927</v>
+        <v>45292</v>
       </c>
       <c r="AD2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="29:29" x14ac:dyDescent="0.25">
@@ -1664,5 +1670,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/excel_samples/rider_invoice.xlsx
+++ b/public/excel_samples/rider_invoice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\adnan_uae\erp_express\public\excel_samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Gaurantee</t>
+  </si>
+  <si>
+    <t>Bike &amp; Sim Charges</t>
+  </si>
+  <si>
+    <t>Jan-2024</t>
   </si>
 </sst>
 </file>
@@ -167,10 +173,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE329"/>
+  <dimension ref="A1:AF329"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +507,7 @@
     <col min="30" max="30" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -594,8 +601,11 @@
       <c r="AE1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45341</v>
       </c>
@@ -680,53 +690,56 @@
       <c r="AB2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="1">
-        <v>45292</v>
+      <c r="AC2" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="AD2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="29:29" x14ac:dyDescent="0.25">

--- a/public/excel_samples/rider_invoice.xlsx
+++ b/public/excel_samples/rider_invoice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>Jan-2024</t>
+  </si>
+  <si>
+    <t>Fuel Charges</t>
+  </si>
+  <si>
+    <t>Fuel Narration</t>
+  </si>
+  <si>
+    <t>RTA charges</t>
+  </si>
+  <si>
+    <t>RTA Narration</t>
   </si>
 </sst>
 </file>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF329"/>
+  <dimension ref="A1:AJ329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,9 +517,15 @@
     <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -604,8 +622,20 @@
       <c r="AF1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45341</v>
       </c>
@@ -700,46 +730,46 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="29:29" x14ac:dyDescent="0.25">

--- a/public/excel_samples/rider_invoice.xlsx
+++ b/public/excel_samples/rider_invoice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\adnan_uae\erp_express\public\excel_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>RTA Narration</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ329"/>
+  <dimension ref="A1:AK329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AK1" sqref="AK1"/>
@@ -525,7 +528,7 @@
     <col min="36" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -634,8 +637,11 @@
       <c r="AJ1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45341</v>
       </c>
@@ -730,46 +736,46 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="29:29" x14ac:dyDescent="0.25">
